--- a/biology/Zoologie/A_Nymphoid_Barbarian_in_Dinosaur_Hell/A_Nymphoid_Barbarian_in_Dinosaur_Hell.xlsx
+++ b/biology/Zoologie/A_Nymphoid_Barbarian_in_Dinosaur_Hell/A_Nymphoid_Barbarian_in_Dinosaur_Hell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A Nymphoid Barbarian in Dinosaur Hell est un film américain réalisé par Brett Piper, sorti en 1991.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une guerre nucléaire, l'homme a quasiment été rayé de la surface de la terre. Les radiations ont transformés bon nombre d'entre eux en horribles mutants, tandis que les animaux qui peuplaient alors la planète sont devenus d'énormes monstres ressemblant à des dinosaures. Léa, dernière femme sur Terre, va tout faire pour survivre dans ce monde hostile...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : A nymphoid barbarian in dinosaur hell
 Réalisation : Brett Piper
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linda Corwin : Lea
 Alex Pirnie : Clon
